--- a/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto - Externo.xlsx
+++ b/Gerenciamento de Projeto/HD - Checklist Verificacao de Projeto - Externo.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E53FE45-E946-46E6-9DBC-32737D20DAF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83C5E6E-4FFA-44EF-87B1-0B525D01642C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="136">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1018,6 +1018,24 @@
   </si>
   <si>
     <t>GIT</t>
+  </si>
+  <si>
+    <t>Houve alteração no gerenciamento de clientes</t>
+  </si>
+  <si>
+    <t>Verificar padrões de projetos</t>
+  </si>
+  <si>
+    <t>Falta complementar!!!</t>
+  </si>
+  <si>
+    <t>Acredito que deva ter deixado o teste para um próximo Sprint</t>
+  </si>
+  <si>
+    <t>Só diagrama de classe!!!</t>
+  </si>
+  <si>
+    <t>Aluisio Santos-Grupo JOB SEA</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1562,7 @@
                   <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.70370370370370372</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2048,9 +2066,9 @@
       <c r="A4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="21" t="e">
+      <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2087,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -2803,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2832,14 +2850,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="17"/>
+      <c r="C2" s="28">
+        <v>44191</v>
+      </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="41"/>
-      <c r="F2" s="22" t="e">
+      <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>0.70370370370370372</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2847,7 +2867,9 @@
         <v>26</v>
       </c>
       <c r="B3" s="35"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
       </c>
@@ -2894,8 +2916,12 @@
       <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -2916,7 +2942,9 @@
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
@@ -2938,7 +2966,9 @@
       <c r="C10" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -2950,7 +2980,9 @@
       <c r="C11" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -2962,7 +2994,9 @@
       <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -2974,7 +3008,9 @@
       <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -2996,7 +3032,9 @@
       <c r="C15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
@@ -3018,7 +3056,9 @@
       <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
@@ -3034,7 +3074,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="45">
       <c r="A19" s="33"/>
       <c r="B19" s="5">
         <v>9</v>
@@ -3042,8 +3082,12 @@
       <c r="C19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="30">
@@ -3054,8 +3098,12 @@
       <c r="C20" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
+      <c r="D20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="30">
@@ -3066,7 +3114,9 @@
       <c r="C21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
@@ -3078,7 +3128,9 @@
       <c r="C22" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
@@ -3090,8 +3142,12 @@
       <c r="C23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="8"/>
+      <c r="D23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="15">
@@ -3112,7 +3168,9 @@
       <c r="C25" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
@@ -3124,8 +3182,12 @@
       <c r="C26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="8"/>
+      <c r="D26" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15">
@@ -3148,7 +3210,9 @@
       <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
@@ -3160,7 +3224,9 @@
       <c r="C29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
@@ -3172,7 +3238,9 @@
       <c r="C30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
@@ -3196,7 +3264,9 @@
       <c r="C32" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
@@ -3208,7 +3278,9 @@
       <c r="C33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
@@ -3232,7 +3304,9 @@
       <c r="C35" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
@@ -3244,7 +3318,9 @@
       <c r="C36" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
@@ -3256,7 +3332,9 @@
       <c r="C37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
@@ -3268,7 +3346,9 @@
       <c r="C38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
@@ -3280,7 +3360,9 @@
       <c r="C39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
@@ -3292,7 +3374,9 @@
       <c r="C40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
@@ -3316,7 +3400,9 @@
       <c r="C42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -3328,7 +3414,9 @@
       <c r="C43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
@@ -3340,7 +3428,9 @@
       <c r="C44" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
@@ -3362,7 +3452,9 @@
       <c r="C46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
@@ -3374,7 +3466,9 @@
       <c r="C47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
@@ -3386,7 +3480,9 @@
       <c r="C48" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
